--- a/data/trans_bre/DCD-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Habitat-trans_bre.xlsx
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,65; 28,62</t>
+          <t>10,44; 29,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 15,46</t>
+          <t>-1,2; 15,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 20,16</t>
+          <t>1,01; 20,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,39; 857,73</t>
+          <t>108,57; 917,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 362,04</t>
+          <t>-21,13; 393,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 160,99</t>
+          <t>2,52; 161,32</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 12,45</t>
+          <t>4,63; 12,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,31; 10,75</t>
+          <t>3,34; 10,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,61; 14,68</t>
+          <t>5,62; 15,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,0; 172,47</t>
+          <t>42,62; 178,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,97; 203,96</t>
+          <t>38,49; 196,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,0; 117,87</t>
+          <t>32,49; 119,22</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,78; 12,18</t>
+          <t>6,92; 12,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 8,37</t>
+          <t>2,94; 8,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,88; 17,5</t>
+          <t>10,92; 17,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>86,86; 221,8</t>
+          <t>90,27; 231,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>38,6; 146,76</t>
+          <t>35,5; 141,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>79,22; 172,96</t>
+          <t>82,68; 183,28</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 12,44</t>
+          <t>6,2; 12,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 8,0</t>
+          <t>2,23; 8,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 17,23</t>
+          <t>3,33; 17,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,88; 273,91</t>
+          <t>89,57; 323,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,12; 183,76</t>
+          <t>29,85; 170,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,24; 159,45</t>
+          <t>30,03; 155,34</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,85; 12,29</t>
+          <t>6,8; 12,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,44; 10,45</t>
+          <t>5,01; 11,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,04; 15,99</t>
+          <t>9,26; 15,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>88,65; 233,37</t>
+          <t>86,67; 237,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>53,22; 177,92</t>
+          <t>57,22; 180,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>55,37; 124,36</t>
+          <t>57,42; 124,78</t>
         </is>
       </c>
     </row>
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,13; 11,14</t>
+          <t>8,17; 11,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,72</t>
+          <t>4,78; 7,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,95; 14,54</t>
+          <t>9,81; 14,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>111,63; 186,57</t>
+          <t>108,12; 182,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>64,34; 125,05</t>
+          <t>64,34; 127,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>72,23; 119,89</t>
+          <t>71,01; 116,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/DCD-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,44; 29,44</t>
+          <t>10,08; 29,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 15,76</t>
+          <t>-1,31; 15,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>108,57; 917,57</t>
+          <t>103,02; 946,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 393,03</t>
+          <t>-22,11; 376,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,63; 12,93</t>
+          <t>4,68; 12,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 10,59</t>
+          <t>3,39; 10,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,62; 178,15</t>
+          <t>41,64; 177,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,49; 196,76</t>
+          <t>36,91; 206,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,92; 12,4</t>
+          <t>6,79; 12,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 8,29</t>
+          <t>3,0; 8,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -893,12 +893,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>90,27; 231,22</t>
+          <t>84,91; 231,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>35,5; 141,45</t>
+          <t>35,84; 145,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -973,12 +973,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,2; 12,68</t>
+          <t>5,98; 12,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,23; 8,13</t>
+          <t>2,24; 7,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -993,12 +993,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>89,57; 323,01</t>
+          <t>85,35; 294,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,85; 170,88</t>
+          <t>25,27; 178,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1073,12 +1073,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,8; 12,19</t>
+          <t>6,6; 12,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,01; 11,0</t>
+          <t>4,79; 10,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>86,67; 237,67</t>
+          <t>83,09; 230,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>57,22; 180,2</t>
+          <t>55,72; 178,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1173,12 +1173,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,17; 11,19</t>
+          <t>8,08; 11,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,78; 7,86</t>
+          <t>4,8; 7,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>108,12; 182,64</t>
+          <t>109,37; 182,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>64,34; 127,45</t>
+          <t>64,62; 127,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/DCD-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,08; 29,26</t>
+          <t>10,65; 28,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 15,81</t>
+          <t>-1,58; 15,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 20,06</t>
+          <t>0,68; 20,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>103,02; 946,68</t>
+          <t>96,39; 857,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-22,11; 376,4</t>
+          <t>-27,61; 362,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 161,32</t>
+          <t>-0,53; 160,99</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,68; 12,8</t>
+          <t>4,42; 12,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,39; 10,76</t>
+          <t>3,31; 10,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 15,02</t>
+          <t>5,61; 14,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,64; 177,04</t>
+          <t>39,0; 172,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>36,91; 206,22</t>
+          <t>37,97; 203,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32,49; 119,22</t>
+          <t>33,0; 117,87</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,79; 12,67</t>
+          <t>6,78; 12,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 8,43</t>
+          <t>3,02; 8,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,92; 17,71</t>
+          <t>10,88; 17,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>84,91; 231,0</t>
+          <t>86,86; 221,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>35,84; 145,39</t>
+          <t>38,6; 146,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>82,68; 183,28</t>
+          <t>79,22; 172,96</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,98; 12,53</t>
+          <t>6,07; 12,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 7,99</t>
+          <t>2,4; 8,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,33; 17,2</t>
+          <t>2,76; 17,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,35; 294,93</t>
+          <t>83,88; 273,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,27; 178,63</t>
+          <t>34,12; 183,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,03; 155,34</t>
+          <t>24,24; 159,45</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,6; 12,44</t>
+          <t>6,85; 12,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,79; 10,54</t>
+          <t>4,44; 10,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,26; 15,93</t>
+          <t>9,04; 15,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>83,09; 230,19</t>
+          <t>88,65; 233,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>55,72; 178,04</t>
+          <t>53,22; 177,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>57,42; 124,78</t>
+          <t>55,37; 124,36</t>
         </is>
       </c>
     </row>
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,08; 11,11</t>
+          <t>8,13; 11,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,8; 7,85</t>
+          <t>4,82; 7,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,81; 14,45</t>
+          <t>9,95; 14,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>109,37; 182,91</t>
+          <t>111,63; 186,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>64,62; 127,72</t>
+          <t>64,34; 125,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>71,01; 116,5</t>
+          <t>72,23; 119,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/DCD-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,55 +539,43 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
       <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -604,13 +590,11 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,48</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>9,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,31</t>
+          <t>123,83%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>327,26%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>84,98%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>57,05%</t>
+          <t>65,29%</t>
         </is>
       </c>
     </row>
@@ -668,49 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,67; 14,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,65; 28,62</t>
+          <t>3,22; 10,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 15,46</t>
+          <t>3,91; 13,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 20,16</t>
+          <t>64,05; 202,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,33; 182,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,39; 857,73</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-27,61; 362,04</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-0,53; 160,99</t>
+          <t>26,99; 105,17</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,58</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,7</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,04</t>
+          <t>16,75</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,21</t>
+          <t>146,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>97,51%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>103,33%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>69,15%</t>
+          <t>177,88%</t>
         </is>
       </c>
     </row>
@@ -768,49 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,78; 12,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 12,45</t>
+          <t>3,02; 8,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,31; 10,75</t>
+          <t>12,99; 21,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,61; 14,68</t>
+          <t>86,86; 221,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,6; 146,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,0; 172,47</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>37,97; 203,96</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>33,0; 117,87</t>
+          <t>104,33; 413,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,58</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>8,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,35</t>
+          <t>168,09%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,32%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>146,47%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>81,69%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>123,08%</t>
+          <t>75,24%</t>
         </is>
       </c>
     </row>
@@ -868,49 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,07; 12,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,78; 12,18</t>
+          <t>2,4; 8,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 8,37</t>
+          <t>-2,02; 15,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,88; 17,5</t>
+          <t>83,88; 273,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,12; 183,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>86,86; 221,8</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>38,6; 146,76</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>79,22; 172,96</t>
+          <t>-13,57; 144,06</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,57</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,2</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>10,87</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,1</t>
+          <t>148,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>168,09%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>88,32%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>100,65%</t>
+          <t>75,47%</t>
         </is>
       </c>
     </row>
@@ -968,49 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,85; 12,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 12,44</t>
+          <t>4,44; 10,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 8,0</t>
+          <t>5,78; 14,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 17,23</t>
+          <t>88,65; 233,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,22; 177,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,88; 273,91</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>34,12; 183,76</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>24,24; 159,45</t>
+          <t>36,6; 113,34</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,57</t>
+          <t>6,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>11,99</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,31</t>
+          <t>144,79%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,23%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>148,89%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>105,91%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>85,2%</t>
+          <t>97,8%</t>
         </is>
       </c>
     </row>
@@ -1068,163 +962,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,13; 11,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,85; 12,29</t>
+          <t>4,82; 7,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,44; 10,45</t>
+          <t>7,83; 15,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,04; 15,99</t>
+          <t>111,63; 186,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,34; 125,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>88,65; 233,37</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>53,22; 177,92</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>55,37; 124,36</t>
+          <t>64,12; 147,46</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>9,65</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,33</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>12,49</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>144,79%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>94,23%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>94,38%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>8,13; 11,14</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>4,82; 7,72</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>9,95; 14,54</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>111,63; 186,57</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>64,34; 125,05</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>72,23; 119,89</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/DCD-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Habitat-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,67; 14,16</t>
+          <t>6,62; 14,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 10,18</t>
+          <t>3,39; 10,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,91; 13,76</t>
+          <t>4,24; 13,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>64,05; 202,39</t>
+          <t>63,91; 204,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,33; 182,85</t>
+          <t>38,52; 184,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,99; 105,17</t>
+          <t>28,39; 109,46</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,78; 12,18</t>
+          <t>6,58; 12,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 8,37</t>
+          <t>2,94; 8,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,99; 21,93</t>
+          <t>13,03; 22,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>86,86; 221,8</t>
+          <t>86,14; 236,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,6; 146,76</t>
+          <t>36,43; 147,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>104,33; 413,96</t>
+          <t>108,3; 434,49</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 12,44</t>
+          <t>6,02; 12,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 8,0</t>
+          <t>2,2; 7,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 15,93</t>
+          <t>-1,13; 16,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>83,88; 273,91</t>
+          <t>88,61; 303,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,12; 183,76</t>
+          <t>28,99; 176,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,57; 144,06</t>
+          <t>-5,86; 151,69</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 12,29</t>
+          <t>6,51; 12,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,44; 10,45</t>
+          <t>4,7; 10,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,78; 14,56</t>
+          <t>5,26; 14,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>88,65; 233,37</t>
+          <t>86,29; 236,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>53,22; 177,92</t>
+          <t>54,61; 176,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,6; 113,34</t>
+          <t>34,52; 111,98</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,13; 11,14</t>
+          <t>8,14; 11,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,72</t>
+          <t>4,87; 7,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,83; 15,05</t>
+          <t>7,5; 14,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>111,63; 186,57</t>
+          <t>111,66; 184,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>64,34; 125,05</t>
+          <t>67,08; 129,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,12; 147,46</t>
+          <t>62,93; 144,25</t>
         </is>
       </c>
     </row>
